--- a/Farm_Outputs.xlsx
+++ b/Farm_Outputs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -142,19 +142,19 @@
     <t xml:space="preserve">Gross.Profit</t>
   </si>
   <si>
-    <t xml:space="preserve">-106145.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -16746.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-108853.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  57485.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  61517.01</t>
+    <t xml:space="preserve">-157046.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -16140.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-105846.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  66723.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  59870.01</t>
   </si>
   <si>
     <t xml:space="preserve">Gross.Profit.Margin</t>
@@ -163,157 +163,160 @@
     <t xml:space="preserve">No Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">55.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.77</t>
+    <t xml:space="preserve">64.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.17</t>
   </si>
   <si>
     <t xml:space="preserve">Net.Profit</t>
   </si>
   <si>
-    <t xml:space="preserve">-194265.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-105079.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-206770.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -41114.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -37083.01</t>
+    <t xml:space="preserve">-238626.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -98159.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-251333.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-142226.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -44199.03</t>
   </si>
   <si>
     <t xml:space="preserve">Net.Profit.Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">-39.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.03</t>
+    <t xml:space="preserve">-138.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.95</t>
   </si>
   <si>
     <t xml:space="preserve">Depreciation</t>
   </si>
   <si>
-    <t xml:space="preserve">10180.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11892.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21476.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22160.12</t>
+    <t xml:space="preserve">  3160.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5099.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68567.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132030.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27149.32</t>
   </si>
   <si>
     <t xml:space="preserve">Cash.Flow.YE</t>
   </si>
   <si>
-    <t xml:space="preserve"> -204445.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -321417.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -549664.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -612938.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -672182.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -731425.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -790668.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -849911.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -909154.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -968397.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1027640.8</t>
+    <t xml:space="preserve"> -241787.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -345045.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -664946.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -939203.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1010551.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1081900.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1153248.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1224596.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1295945.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1367293.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1438641.9</t>
   </si>
   <si>
     <t xml:space="preserve">234472.7</t>
   </si>
   <si>
-    <t xml:space="preserve">-106145.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -16746.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-108853.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 189040.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 193072.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  90440.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  94472.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-204445.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-321417.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-549664.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-481383.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-409071.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-336759.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-264447.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-192135.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-119823.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -47511.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24800.45</t>
+    <t xml:space="preserve">-157046.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -16140.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-105846.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 198278.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 191425.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10671.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  87356.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-241787.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345045.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-664946.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-807648.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-747441.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-687234.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-627027.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-566821.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-506614.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-446407.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-386200.6</t>
   </si>
   <si>
     <t xml:space="preserve">COG.Cost.of.Goods.Sold</t>
@@ -403,6 +406,12 @@
     <t xml:space="preserve">Item</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
@@ -418,12 +427,25 @@
     <t xml:space="preserve">Ear Hanging</t>
   </si>
   <si>
+    <t xml:space="preserve">Small plastic pins for affixing scallops
+to dropper line</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y2</t>
   </si>
   <si>
     <t xml:space="preserve">Anchor (Brick)</t>
   </si>
   <si>
+    <t xml:space="preserve">Anchor tied to ech dropper line for 
+additional weight in high flow systems
+might not be necessary in estuarine 
+systems, clay cored brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lowes.com/pd/8-in-x-4-in-Clay-Red-Cored-Standard-Brick/5013595093</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anchor (Cement Bucket)</t>
   </si>
   <si>
@@ -433,6 +455,10 @@
     <t xml:space="preserve">Wild Spat - Collected</t>
   </si>
   <si>
+    <t xml:space="preserve">anchors along longline designed
+to reduce shift in the longline system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1</t>
   </si>
   <si>
@@ -445,6 +471,10 @@
     <t xml:space="preserve">De-Pinning Machine</t>
   </si>
   <si>
+    <t xml:space="preserve">Allows the reuse of dropper line 
+by removing age-pins</t>
+  </si>
+  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
@@ -454,12 +484,24 @@
     <t xml:space="preserve">Specialized Equipment</t>
   </si>
   <si>
+    <t xml:space="preserve">Specialized drill auomated drilling of 
+scallops for ear hanging.  Manual pinning
+Mid-range option.</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Dropper Line</t>
   </si>
   <si>
+    <t xml:space="preserve">Polyethelene rope for scallop ear 
+hanging dropper lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.hamiltonmarine.com/products/rope-polypro-yellow-or-black--foot-or-reel--42869.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
@@ -469,6 +511,10 @@
     <t xml:space="preserve">Gangion Line</t>
   </si>
   <si>
+    <t xml:space="preserve">1/8-1/4 (3/16") rope used in small
+ sections to attach gear to longline</t>
+  </si>
+  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
@@ -481,12 +527,26 @@
     <t xml:space="preserve">Go-Deep Buoy</t>
   </si>
   <si>
+    <t xml:space="preserve">Small hard marker buoys used for surface 
+barely subsurface use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.hamiltonmarine.com/products/hardshell-low-drag-buoy-7-25--x-22--42621.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">Hard Ball Buoy</t>
   </si>
   <si>
+    <t xml:space="preserve">Submersible hard ball designed to 
+offset gear weight on longline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://whitewaterfishingsupply.com/products/hard-float-red-300mm-dia-low-drag</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
@@ -502,6 +562,10 @@
     <t xml:space="preserve">Lantern Net</t>
   </si>
   <si>
+    <t xml:space="preserve">tiered mesh net between 3-15mm in
+mesh size.  No pricing available</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
@@ -511,36 +575,67 @@
     <t xml:space="preserve">Pinning Machine</t>
   </si>
   <si>
+    <t xml:space="preserve">Creates dropper lines by inserting
+age-pins into dropper line rope</t>
+  </si>
+  <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
     <t xml:space="preserve">Power Pack</t>
   </si>
   <si>
+    <t xml:space="preserve">Provides additional power onboard
+vessels for specialized equipment</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">Scallop Grader</t>
   </si>
   <si>
+    <t xml:space="preserve">Grades scallops into size classes 
+reducing labor at various sorting
+stages</t>
+  </si>
+  <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
     <t xml:space="preserve">Scallop Washer</t>
   </si>
   <si>
+    <t xml:space="preserve">Uses jet spray nozzles to remove fouling
+from scallop shell.  Requires power pack.</t>
+  </si>
+  <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">Spat Collection Permit</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual spat collection license fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mainelegislature.org/legis/statutes/12/title12sec6074-A.html#:~:text=The%20fee%20for%20a%20spat%20collection%20license%20is%20%2475.</t>
+  </si>
+  <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
     <t xml:space="preserve">Spat Collector</t>
   </si>
   <si>
+    <t xml:space="preserve">Spat collector consisting of a 1.5 - 3mm
+mesh bag filled with 20-30 ft of 
+settlement substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://seagrant.umaine.edu/wp-content/uploads/sites/467/2020/07/Scallop-Farming-Factsheet_508-ADA-Compliant.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corner Tension Float</t>
   </si>
   <si>
@@ -550,54 +645,101 @@
     <t xml:space="preserve">Global</t>
   </si>
   <si>
+    <t xml:space="preserve">Heavy duty submersible flotation buoy 
+placed at longline ends</t>
+  </si>
+  <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
     <t xml:space="preserve">Lease Marker</t>
   </si>
   <si>
+    <t xml:space="preserve">Small lease boundary marker floats 
+(4 total at each corner)</t>
+  </si>
+  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
     <t xml:space="preserve">Miscellaneous Equipment</t>
   </si>
   <si>
+    <t xml:space="preserve">A general column for equipment not 
+considered in the model.</t>
+  </si>
+  <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
     <t xml:space="preserve">Mooring Anchor</t>
   </si>
   <si>
+    <t xml:space="preserve">Various options, this model assumes 
+5 ton cement block and installation in cost
+for main longline mooring</t>
+  </si>
+  <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
     <t xml:space="preserve">Mooring Line + Chain</t>
   </si>
   <si>
+    <t xml:space="preserve">Includes mooring line, shackles 
+and chain for major mooring
+of longline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.hamiltonmarine.com/products/acco-self-colored-1-2--grade-30-iso-chain--by-foot--61634.html
+https://shop.hamiltonmarine.com/products/rope-tow-line-oletec-12-strand-co-polymer-orange--foot-reel--58549.html
+https://shop.hamiltonmarine.com/products/chicago-hardware-anchor-shackle-screw-pin-galvanized-44711.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
     <t xml:space="preserve">Rope (1 inch)</t>
   </si>
   <si>
+    <t xml:space="preserve">Heavy rope, used for longline setup and
+long term installations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.hamiltonmarine.com/products/rope-tow-line-oletec-12-strand-co-polymer-orange--foot-reel--58549.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">38</t>
   </si>
   <si>
     <t xml:space="preserve">Surface Float (Large)</t>
   </si>
   <si>
+    <t xml:space="preserve">Surface floats for longline marking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.hamiltonmarine.com/products/polyform-low-drag-buoys-42624.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">39</t>
   </si>
   <si>
     <t xml:space="preserve">Truck</t>
   </si>
   <si>
+    <t xml:space="preserve">Work vehicle for transport of gear</t>
+  </si>
+  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">Vessel</t>
   </si>
   <si>
+    <t xml:space="preserve">Vessel for longline work, includes all 
+modifications in cost.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task</t>
   </si>
   <si>
@@ -640,45 +782,93 @@
     <t xml:space="preserve">Fall</t>
   </si>
   <si>
+    <t xml:space="preserve">In Fall, set settlement devices for spat collection
+~ August-September</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collect Settlement Device</t>
   </si>
   <si>
     <t xml:space="preserve">Spring</t>
   </si>
   <si>
+    <t xml:space="preserve">In Spring/Winter collect settlement devices
+with spat in them ~January-April</t>
+  </si>
+  <si>
     <t xml:space="preserve">Process Settlement Device</t>
   </si>
   <si>
+    <t xml:space="preserve">Process settlement devices by separating scallop
+spat from fouling organisms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spat Stocking</t>
   </si>
   <si>
     <t xml:space="preserve">Scallops/Day</t>
   </si>
   <si>
+    <t xml:space="preserve">Stock spat into lantern nets, usually a volumetric
+stocking of ~250 scallops/tier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restock - Intermediate Culture</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
   </si>
   <si>
+    <t xml:space="preserve">Restock spat into lantern nets at ~25/tier in
+Spring/Summer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lantern Net Cleaning (Spring)</t>
   </si>
   <si>
+    <t xml:space="preserve">Spring lantern net cleaning, usually involves emptying
+net and putting scallops into clean net.  Then 
+cleaning old net</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lantern Net Cleaning (Summer)</t>
   </si>
   <si>
+    <t xml:space="preserve">Summer lantern net cleaning, usually involves emptying
+net and putting scallops into clean net.  Then 
+cleaning old net</t>
+  </si>
+  <si>
     <t xml:space="preserve">Previous Year Net Cleaning (on Land)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cleaning of nets on land from previous year of 
+scallops</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drilling + Pinning: Automated Drilling</t>
   </si>
   <si>
+    <t xml:space="preserve">Automated drilling machine is the fastest method of
+drilling however requires</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Line Construction</t>
   </si>
   <si>
+    <t xml:space="preserve">Dropper Line construction can be done at 
+almost any time.  Uses pinning machine
+to insert age-pins into dropper line</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Line Cleaning (Spring)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dropper line cleaning, important for growth and 
+shell quality in whole scallop market.  Cleaning 
+requires a specialized system to do easily</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Line Cleaning (Summer)</t>
   </si>
   <si>
@@ -691,12 +881,21 @@
     <t xml:space="preserve">Harvest</t>
   </si>
   <si>
+    <t xml:space="preserve">Harvest, similar time frame for whole scallops
+and adductor only.  Does not account for
+delivery to market</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prep Time (Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">Hours/Week</t>
   </si>
   <si>
+    <t xml:space="preserve">On land 'Prep time' for misc tasks 
+ex: cement bucket anchor construction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prep Time (Fall)</t>
   </si>
   <si>
@@ -724,6 +923,9 @@
     <t xml:space="preserve">Fuel.Cost</t>
   </si>
   <si>
+    <t xml:space="preserve">Usage/trip entails the total daily mileage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maintenance.Cost</t>
   </si>
   <si>
@@ -733,147 +935,442 @@
     <t xml:space="preserve">Cost</t>
   </si>
   <si>
+    <t xml:space="preserve">average maintenance cost/vessel trip.
+This is in addition to depreication costs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miles</t>
   </si>
   <si>
+    <t xml:space="preserve">average maintenance cost/truck trip.
+This is in addition to depreication costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went through a number of conseptual ideas
+however I think a flat fee per equipment is a
+better option or else the model becomes needlessly complex.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VariableName</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description (Long)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lease Type</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Lease</t>
   </si>
   <si>
+    <t xml:space="preserve">Choose Lease Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Lease'
+'LPA''Experimental Lease'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lease type will have cost and space limitations
+Standard Lease = $1500 app fee, $100/acre annual
+LPA = $100 app fee, $100/acrea annual
+Experimantal Lease = $0 app fee, $50/acre annual
+Limitations are to lease acreage and reapplication fees</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longline Quantity</t>
   </si>
   <si>
     <t xml:space="preserve">1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of Longlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of longlines on lease space, each longline 
+requires 2 anchors, buoys, etc.  However, more longlines
+increases redundancy in the system</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longline Depth</t>
   </si>
   <si>
     <t xml:space="preserve">60.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Lease site depth at low tide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth at the lease site for anchoring longlines, 
+will also affect dropper line length (ear hanging)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longline Suspended Depth</t>
   </si>
   <si>
     <t xml:space="preserve">15.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Depth of head rope (main line) 
+below surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 0 to Longline Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth below surface, Longline Depth-Longline
+Suspended Depth = Total Available Culture Space</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">100000.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Projected Spat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 - unlimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projected spat collected, this number is going to 
+vary in reality but it's just a limitation of the 
+model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Starting Year</t>
   </si>
   <si>
     <t xml:space="preserve">2023.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Self Explanatory, first your of spat procurement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consumables</t>
   </si>
   <si>
     <t xml:space="preserve">1000.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Miscellaneous Annual Gear 
+Ex: gloves, knifes, coffee, rain gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a catch all for the odds and ends you will expect
+to purchase during the year.  Kind of a catch all</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner Salary</t>
   </si>
   <si>
     <t xml:space="preserve">35000.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Projected annual owner salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struan tells me this is important to put into the model</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insurance</t>
   </si>
   <si>
     <t xml:space="preserve">5000.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Insurance Costs (Combined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All insurance costs for vessel, truck, employees
+farm, etc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Full Time Employee</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of salaried employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaried employees are paid an annual salary
+and are a fixed operating cost whereas part time 
+employees are a variable cost of labor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Employee Salary</t>
   </si>
   <si>
+    <t xml:space="preserve">Projected annual employee salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual employee wage per employee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Part Time Wage</t>
   </si>
   <si>
+    <t xml:space="preserve">Part time hourly wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25 - Unlimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum is based on federal minimum wage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Harvest Season</t>
   </si>
   <si>
+    <t xml:space="preserve">Harvest Quarter:
+Winter: November - January
+Spring: February - April
+Summer: May - July
+Fall: August - October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall', 'Winter','Spring','Summer'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarterly harvest period where work would 
+theoretically 'start'.  Allows for the model to 
+assess harvest against labor saving benefits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Harvest Year</t>
   </si>
   <si>
+    <t xml:space="preserve">Harvest Year:
+Y2: Starts Fall after 2 years
+Y3: Starts Fall after 3 years
+Y4: Only Fall after 4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2','Y3','Y4'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth metrics are only for Year 2, Year 3, and the
+Fall of Year 4.  So year and season allows for
+prediction of harvest after 2.0, 2.25, 2.5, 2.75, 3.0,
+3.25, 3.5, 3.75, and 4.0 years old (approximately)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spat Procurement</t>
   </si>
   <si>
+    <t xml:space="preserve">Select method of spat procurement:
+Wild Spat - Collected: Collected by grower
+Wild Spat - Purchased: Purchased from third 
+party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Spat - Collected' 
+'Wild Spat - Purchased'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two current methods of scallop seed (ie spat)
+To collect, growers place spat collectors in Y0 Fall
+and collect in Y0 Spring.  Requires labor and time.
+The other option is purchase from a third party, 
+more expensive/scallop as scale increases.  Grower would 
+start lease work in Y0 spring with stocking lantern nets with
+spat at 150-250/tier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intermediate Culture</t>
   </si>
   <si>
+    <t xml:space="preserve">Select method of intermediate culture:
+Intermediate - Lantern Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently the model only supports  lantern net culture
+the other option is pearl nets.  In this stage growers 
+restock seed in Fall to 25-35/tier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grow Out Method</t>
   </si>
   <si>
+    <t xml:space="preserve">Select method of grow out culture:
+Ear Hanging
+Lantern Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ear Hanging'
+'Lantern Net'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grow out is the final and potentially longest phase.
+For lantern net growers would restock to ~10 per tier 
+but in the second year of grow out (3-4 years) they 
+would not need to restock.  Ear hanging requires 
+pinning initially but then only requires cleaning after</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wild Spat Collector</t>
   </si>
   <si>
     <t xml:space="preserve">4000.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Predicted number of scallop spat/collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be set to ~2000, Japan
+reports spat density as high as 
+1 million/collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spat Site Depth</t>
   </si>
   <si>
     <t xml:space="preserve">100.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Depth of spat collector placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spat are hung on a line in the water 
+column with an anchor and buoy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seed Net Density</t>
   </si>
   <si>
     <t xml:space="preserve">250.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Stocking density of 0-1 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern net stocking density per tier.  
+Scallop growth is highly dependent on 
+density, it's a trade off between growth
+and labor/equipment costs for lantern
+nets. (they are ~10-20 mm here)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1 Stocking Density</t>
   </si>
   <si>
     <t xml:space="preserve">25.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Stocking density of 1-2 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1 stocking density requires heavy thinning
+and growth will be affected above 25/tier
+but the goal is to get all scallops to 
+45-55mm before the next year</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y2 Stocking Density</t>
   </si>
   <si>
     <t xml:space="preserve">10.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Stocking density of 2-3 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2 Stocking density requires final thinning
+to grow out density.  Note that ear hanging
+ignores this metric</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y3 Stocking Density</t>
   </si>
   <si>
+    <t xml:space="preserve">Stocking density of 3-4 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I included this in case growers want to 
+consider a final thinning for lantern net
+calculations</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y0 Mortality</t>
   </si>
   <si>
     <t xml:space="preserve">0.125</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Mortality of 0-1 year old seed scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual mortality of seed, constant here
+but seed will likely have higher mortality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1 Mortality</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Mortality of 1-2 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Y1 mortality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y2 Mortality</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Mortality of 2-3 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Y2 Mortality, note this is really
+just general loss, not specifically 
+death</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y3 Mortality</t>
   </si>
   <si>
+    <t xml:space="preserve">Annual Mortality of 3-4 year old scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Y3 Mortality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1 Product</t>
   </si>
   <si>
     <t xml:space="preserve">Product * (1-`Y0 Mortality`)</t>
   </si>
   <si>
+    <t xml:space="preserve">Formula for total loss in year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal mortality breaks these down 
+into quarters but still assumes growers
+are taking annual mortality estimates
+(it affects calculation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y2 Product</t>
   </si>
   <si>
@@ -898,88 +1395,255 @@
     <t xml:space="preserve">0.01</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost per Scallop seed (divide if necessary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-$1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much scallop seed costs.  Often
+sold in batches of price/1000 scallops
+but that varies so growers will
+just have to divide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mooring Length</t>
   </si>
   <si>
     <t xml:space="preserve">4.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Scope in relation to longline depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44934.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the mooring length as a function of 
+longline suspended depth.  Literature
+recommends a mooring length of
+3-4 times the depth.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surface Float Spacing</t>
   </si>
   <si>
+    <t xml:space="preserve">Spacing of major surface floats (Feet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space between surface buoys attached 
+to longline meant for general visibility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longline Spacing</t>
   </si>
   <si>
+    <t xml:space="preserve">120.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space between longlines and lease edge (Feet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin between longline and lease 
+boundary which will afect total lease area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shellfish License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Shellfish Aquaculture License Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All growers require an annual shellfish
+license that is a fixed operating cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collectors Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spat collectors per anchored line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each anchor line for spat collection
+has several collectors attached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangion Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average length of gangions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlimtied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangions or rope lengths used to attach 
+gear such as lantern nets and 
+sub surface buoys to longline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Net Tiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of compartments in each lantern net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44951.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard is 7 or 10 but there can 
+be 20 or more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Net Hardball Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of lantern nets per hardball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard balls or compression resistant 
+buoys used below the surface to keep 
+gear off the bottom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Net Anchor Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of lantern nets per anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchors are placed along longline
+to keep drift from current to a minimum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lantern Net Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacing between lantern nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will affect total longline length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ear Hanging Hardball Spacing</t>
+  </si>
+  <si>
     <t xml:space="preserve">40.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Shellfish License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collectors Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangion Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Net Tiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Net Hardball Spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Net Anchor Spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lantern Net Spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ear Hanging Hardball Spacing</t>
+    <t xml:space="preserve">Number of dropper lines per hard ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to lantern nets but less for 
+dropper lines due to lower surface area</t>
   </si>
   <si>
     <t xml:space="preserve">Ear Hanging Anchor Spacing</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of dropper lines per anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same but for anchors</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Line Spacing</t>
   </si>
   <si>
+    <t xml:space="preserve">Spacing between dropper lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing between dropper lines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scallops Per Dropper</t>
   </si>
   <si>
     <t xml:space="preserve">140.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of (paired) scallops on each dropper line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total scallops on each dropper line
+scallops are hung in pairs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scallop Spacing</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Spacing between scallops on dropper line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacing between each scallop couplet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Margins</t>
   </si>
   <si>
+    <t xml:space="preserve">Margin of rope without scallops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin on either end, growers want a 
+margin near the top to avoid scallops 
+being out of the water when working 
+the line</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ear Hanging Droppers</t>
   </si>
   <si>
     <t xml:space="preserve">ceiling((`Y2 Product`/`Scallops Per Dropper`))</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculated total dropper lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculates total dropper lines for each 
+year, if more than 1 year grow out
+just doubles number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dropper Length</t>
   </si>
   <si>
     <t xml:space="preserve">((`Scallops Per Dropper`*`Scallop Spacing`)/2 + `Dropper Margins`)</t>
   </si>
   <si>
+    <t xml:space="preserve">Total dropper line length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For cost of dropper line per foot metric</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily Work Hours</t>
   </si>
   <si>
     <t xml:space="preserve">8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily work hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily work paid for part time help</t>
   </si>
 </sst>
 </file>
@@ -1632,63 +2296,63 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1833,28 +2497,28 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1862,37 +2526,37 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1909,28 +2573,28 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1947,28 +2611,28 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1985,28 +2649,28 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -2026,63 +2690,63 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2110,51 +2774,51 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2163,16 +2827,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>106145.4</v>
+        <v>157046.8</v>
       </c>
       <c r="E2" t="n">
-        <v>88120.1630169363</v>
+        <v>81579.9545508088</v>
       </c>
       <c r="F2" t="n">
-        <v>194265.563016936</v>
+        <v>238626.754550809</v>
       </c>
       <c r="G2" t="n">
-        <v>194265.563016936</v>
+        <v>238626.754550809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2207,7 +2871,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -2216,16 +2880,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>16746.8</v>
+        <v>16140.4</v>
       </c>
       <c r="E3" t="n">
-        <v>88332.5380169363</v>
+        <v>82018.9545508088</v>
       </c>
       <c r="F3" t="n">
-        <v>105079.338016936</v>
+        <v>98159.3545508088</v>
       </c>
       <c r="G3" t="n">
-        <v>299344.901033873</v>
+        <v>336786.109101618</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2260,7 +2924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -2269,16 +2933,16 @@
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>108853.88125</v>
+        <v>105846.28125</v>
       </c>
       <c r="E4" t="n">
-        <v>97916.2792669363</v>
+        <v>145487.349550809</v>
       </c>
       <c r="F4" t="n">
-        <v>206770.160516936</v>
+        <v>251333.630800809</v>
       </c>
       <c r="G4" t="n">
-        <v>506115.061550809</v>
+        <v>588119.739902426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2313,7 +2977,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -2322,16 +2986,16 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>45431.88125</v>
+        <v>36194.28125</v>
       </c>
       <c r="E5" t="n">
-        <v>98600.0205169363</v>
+        <v>208949.744550809</v>
       </c>
       <c r="F5" t="n">
-        <v>144031.901766936</v>
+        <v>245144.025800809</v>
       </c>
       <c r="G5" t="n">
-        <v>650146.963317745</v>
+        <v>833263.765703235</v>
       </c>
       <c r="H5" t="n">
         <v>66992.1875</v>
@@ -2352,21 +3016,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N5" t="n">
-        <v>2.14998057448021</v>
+        <v>3.65929274664764</v>
       </c>
       <c r="O5" t="n">
-        <v>9.70481764485963</v>
+        <v>12.4382229749288</v>
       </c>
       <c r="P5" t="n">
-        <v>41.984665478073</v>
+        <v>71.4584046376713</v>
       </c>
       <c r="Q5" t="n">
-        <v>189.514978498649</v>
+        <v>242.892720493681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -2375,16 +3039,16 @@
         <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E6" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F6" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G6" t="n">
-        <v>790147.483834681</v>
+        <v>980380.300254044</v>
       </c>
       <c r="H6" t="n">
         <v>66992.1875</v>
@@ -2405,21 +3069,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O6" t="n">
-        <v>5.89731066652124</v>
+        <v>7.31712410685234</v>
       </c>
       <c r="P6" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.162257042264</v>
+        <v>142.888271426364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -2428,16 +3092,16 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E7" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F7" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G7" t="n">
-        <v>930148.004351618</v>
+        <v>1127496.83480485</v>
       </c>
       <c r="H7" t="n">
         <v>66992.1875</v>
@@ -2458,21 +3122,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O7" t="n">
-        <v>4.62814167374177</v>
+        <v>5.61009115082687</v>
       </c>
       <c r="P7" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.3780165568027</v>
+        <v>109.553455070592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -2481,16 +3145,16 @@
         <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E8" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F8" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G8" t="n">
-        <v>1070148.52486855</v>
+        <v>1274613.36935566</v>
       </c>
       <c r="H8" t="n">
         <v>66992.1875</v>
@@ -2511,21 +3175,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O8" t="n">
-        <v>3.99355717735204</v>
+        <v>4.75657467281413</v>
       </c>
       <c r="P8" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q8" t="n">
-        <v>77.9858963140719</v>
+        <v>92.8860468927058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -2534,16 +3198,16 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E9" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F9" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G9" t="n">
-        <v>1210149.04538549</v>
+        <v>1421729.90390647</v>
       </c>
       <c r="H9" t="n">
         <v>66992.1875</v>
@@ -2564,21 +3228,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O9" t="n">
-        <v>3.6128064795182</v>
+        <v>4.24446478600649</v>
       </c>
       <c r="P9" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.5506241684334</v>
+        <v>82.8856019859741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -2587,16 +3251,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E10" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F10" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G10" t="n">
-        <v>1350149.56590243</v>
+        <v>1568846.43845728</v>
       </c>
       <c r="H10" t="n">
         <v>66992.1875</v>
@@ -2617,16 +3281,16 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O10" t="n">
-        <v>3.3589726809623</v>
+        <v>3.90305819480139</v>
       </c>
       <c r="P10" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.593776071341</v>
+        <v>76.2186387148197</v>
       </c>
     </row>
     <row r="11">
@@ -2640,16 +3304,16 @@
         <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E11" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F11" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G11" t="n">
-        <v>1490150.08641936</v>
+        <v>1715962.97300809</v>
       </c>
       <c r="H11" t="n">
         <v>66992.1875</v>
@@ -2670,21 +3334,21 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O11" t="n">
-        <v>3.17766282485095</v>
+        <v>3.65919634394061</v>
       </c>
       <c r="P11" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.0531702877037</v>
+        <v>71.4565220925665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -2693,16 +3357,16 @@
         <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>41400.5</v>
+        <v>43047.5</v>
       </c>
       <c r="E12" t="n">
-        <v>98600.0205169363</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F12" t="n">
-        <v>140000.520516936</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G12" t="n">
-        <v>1630150.6069363</v>
+        <v>1863079.5075589</v>
       </c>
       <c r="H12" t="n">
         <v>66992.1875</v>
@@ -2723,16 +3387,16 @@
         <v>19.5279278224285</v>
       </c>
       <c r="N12" t="n">
-        <v>2.08980368818284</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O12" t="n">
-        <v>3.04168043276744</v>
+        <v>3.47629995579503</v>
       </c>
       <c r="P12" t="n">
-        <v>40.8095355858793</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.3977159499756</v>
+        <v>67.8849346258767</v>
       </c>
     </row>
   </sheetData>
@@ -2754,45 +3418,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
@@ -2801,28 +3471,32 @@
         <v>1</v>
       </c>
       <c r="G2"/>
-      <c r="H2" t="n">
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="n">
         <v>38281.25</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>38.28125</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>38.28125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
@@ -2831,28 +3505,32 @@
         <v>1</v>
       </c>
       <c r="G3"/>
-      <c r="H3" t="n">
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="n">
         <v>38281.25</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>38.28125</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>38.28125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
         <v>1.5</v>
@@ -2861,28 +3539,34 @@
         <v>10</v>
       </c>
       <c r="G4"/>
-      <c r="H4" t="n">
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="n">
         <v>547</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>820.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>82.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E5" t="n">
         <v>1.5</v>
@@ -2891,28 +3575,34 @@
         <v>10</v>
       </c>
       <c r="G5"/>
-      <c r="H5" t="n">
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" t="n">
         <v>547</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>820.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>82.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -2921,28 +3611,32 @@
         <v>10</v>
       </c>
       <c r="G6"/>
-      <c r="H6" t="n">
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" t="n">
         <v>2.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>12.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -2951,28 +3645,32 @@
         <v>10</v>
       </c>
       <c r="G7"/>
-      <c r="H7" t="n">
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="n">
         <v>1.6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
         <v>134</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -2981,28 +3679,32 @@
         <v>10</v>
       </c>
       <c r="G8"/>
-      <c r="H8" t="n">
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="n">
         <v>5.47</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>27.35</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -3011,28 +3713,32 @@
         <v>10</v>
       </c>
       <c r="G9"/>
-      <c r="H9" t="n">
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="n">
         <v>5.47</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>27.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -3041,28 +3747,32 @@
         <v>10</v>
       </c>
       <c r="G10"/>
-      <c r="H10" t="n">
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="n">
         <v>14</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>70</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" t="n">
         <v>2000</v>
@@ -3071,28 +3781,32 @@
         <v>10</v>
       </c>
       <c r="G11"/>
-      <c r="H11" t="n">
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
         <v>25000</v>
@@ -3101,390 +3815,462 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="n">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>25000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13"/>
-      <c r="H13" t="n">
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" t="n">
         <v>24615</v>
       </c>
-      <c r="I13" t="n">
-        <v>2461.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>492.3</v>
+      <c r="K13" t="n">
+        <v>4184.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>836.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14"/>
-      <c r="H14" t="n">
+      <c r="H14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="n">
         <v>24615</v>
       </c>
-      <c r="I14" t="n">
-        <v>2461.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>492.3</v>
+      <c r="K14" t="n">
+        <v>4184.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>836.91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
       </c>
       <c r="G15"/>
-      <c r="H15" t="n">
+      <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="n">
         <v>176</v>
       </c>
-      <c r="I15" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.54</v>
+      <c r="K15" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
       </c>
       <c r="G16"/>
-      <c r="H16" t="n">
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="n">
         <v>250</v>
       </c>
-      <c r="I16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.1875</v>
+      <c r="K16" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.3125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17"/>
-      <c r="H17" t="n">
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="n">
         <v>1540</v>
       </c>
-      <c r="I17" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>13.475</v>
+      <c r="K17" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32.725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18"/>
-      <c r="H18" t="n">
+      <c r="H18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="n">
         <v>2.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
+      <c r="K18" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
       </c>
       <c r="G19"/>
-      <c r="H19" t="n">
+      <c r="H19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="n">
         <v>35</v>
       </c>
-      <c r="I19" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J19" t="n">
-        <v>175</v>
+      <c r="K19" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20"/>
-      <c r="H20" t="n">
+      <c r="H20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="n">
         <v>13.675</v>
       </c>
-      <c r="I20" t="n">
-        <v>683.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>68.375</v>
+      <c r="K20" t="n">
+        <v>820.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>82.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
       </c>
       <c r="G21"/>
-      <c r="H21" t="n">
+      <c r="H21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>200</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20</v>
+      <c r="K21" t="n">
+        <v>240</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="n">
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="n">
         <v>13.675</v>
       </c>
-      <c r="I22" t="n">
-        <v>683.75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>68.375</v>
+      <c r="K22" t="n">
+        <v>820.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>82.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E23" t="n">
-        <v>21.67</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23"/>
-      <c r="H23" t="n">
+      <c r="H23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" t="n">
         <v>350</v>
       </c>
-      <c r="I23" t="n">
-        <v>7584.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1516.9</v>
+      <c r="K23" t="n">
+        <v>8750</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E24" t="n">
-        <v>21.67</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24"/>
-      <c r="H24" t="n">
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24" t="n">
         <v>40</v>
       </c>
-      <c r="I24" t="n">
-        <v>866.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>173.36</v>
+      <c r="K24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E25" t="n">
         <v>3000</v>
@@ -3493,28 +4279,32 @@
         <v>10</v>
       </c>
       <c r="G25"/>
-      <c r="H25" t="n">
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>3000</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E26" t="n">
         <v>10000</v>
@@ -3523,30 +4313,34 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" t="n">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>10000</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E27" t="n">
         <v>14000</v>
@@ -3555,30 +4349,34 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" t="n">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>14000</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E28" t="n">
         <v>35000</v>
@@ -3587,60 +4385,70 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" t="n">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>35000</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29"/>
-      <c r="H29" t="n">
+      <c r="H29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>20</v>
-      </c>
-      <c r="J29" t="n">
-        <v>20</v>
+      <c r="K29" t="n">
+        <v>75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -3649,58 +4457,68 @@
         <v>1</v>
       </c>
       <c r="G30"/>
-      <c r="H30" t="n">
+      <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" t="n">
         <v>25</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>100</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
       </c>
       <c r="G31"/>
-      <c r="H31" t="n">
+      <c r="H31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>240</v>
-      </c>
-      <c r="J31" t="n">
-        <v>16</v>
+      <c r="K31" t="n">
+        <v>360</v>
+      </c>
+      <c r="L31" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -3709,28 +4527,32 @@
         <v>10</v>
       </c>
       <c r="G32"/>
-      <c r="H32" t="n">
+      <c r="H32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32" t="n">
         <v>4</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>280</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E33" t="n">
         <v>800</v>
@@ -3739,28 +4561,32 @@
         <v>5</v>
       </c>
       <c r="G33"/>
-      <c r="H33" t="n">
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>800</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E34" t="n">
         <v>1000</v>
@@ -3769,118 +4595,140 @@
         <v>25</v>
       </c>
       <c r="G34"/>
-      <c r="H34" t="n">
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>2000</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>0.91</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="n">
         <v>8</v>
       </c>
       <c r="G35"/>
-      <c r="H35" t="n">
+      <c r="H35" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="n">
         <v>360</v>
       </c>
-      <c r="I35" t="n">
-        <v>327.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>40.95</v>
+      <c r="K35" t="n">
+        <v>1620</v>
+      </c>
+      <c r="L35" t="n">
+        <v>202.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>0.61</v>
+        <v>2.65</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
       </c>
       <c r="G36"/>
-      <c r="H36" t="n">
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" t="n">
         <v>2264</v>
       </c>
-      <c r="I36" t="n">
-        <v>1381.04</v>
-      </c>
-      <c r="J36" t="n">
-        <v>138.104</v>
+      <c r="K36" t="n">
+        <v>5999.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>599.96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
       </c>
       <c r="G37"/>
-      <c r="H37" t="n">
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" t="n">
         <v>22.64</v>
       </c>
-      <c r="I37" t="n">
-        <v>2264</v>
-      </c>
-      <c r="J37" t="n">
-        <v>226.4</v>
+      <c r="K37" t="n">
+        <v>1584.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>158.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E38" t="n">
         <v>25000</v>
@@ -3889,48 +4737,56 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" t="n">
+        <v>224</v>
+      </c>
+      <c r="H38" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>25000</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>2500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" t="n">
+        <v>227</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>100000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6666.66666666667</v>
+      <c r="K39" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -3952,57 +4808,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>237</v>
+      </c>
+      <c r="N1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -4011,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I2" t="n">
         <v>50</v>
@@ -4020,30 +4879,33 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" t="n">
+        <v>242</v>
+      </c>
+      <c r="L2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" t="n">
         <v>8</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -4052,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -4061,30 +4923,33 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L3" t="n">
+        <v>245</v>
+      </c>
+      <c r="L3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -4093,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -4102,30 +4967,33 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" t="n">
+        <v>245</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="n">
         <v>8</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -4134,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="I5" t="n">
         <v>200000</v>
@@ -4143,30 +5011,33 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" t="n">
+        <v>245</v>
+      </c>
+      <c r="L5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
@@ -4175,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
@@ -4184,30 +5055,33 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" t="n">
+        <v>253</v>
+      </c>
+      <c r="L6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M6" t="n">
         <v>32</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>960</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F7" t="n">
         <v>18.6666666666667</v>
@@ -4216,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I7" t="n">
         <v>150</v>
@@ -4225,30 +5099,33 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" t="n">
+        <v>245</v>
+      </c>
+      <c r="L7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" t="n">
         <v>24</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
         <v>18.6666666666667</v>
@@ -4257,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I8" t="n">
         <v>150</v>
@@ -4266,30 +5143,33 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" t="n">
+        <v>253</v>
+      </c>
+      <c r="L8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M8" t="n">
         <v>24</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F9" t="n">
         <v>1.6</v>
@@ -4298,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I9" t="n">
         <v>200</v>
@@ -4307,54 +5187,60 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" t="n">
+        <v>242</v>
+      </c>
+      <c r="L9" t="s">
+        <v>260</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.6</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F10" t="n">
-        <v>51.0416666666667</v>
+        <v>40.8333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="I10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" t="n">
-        <v>56</v>
+        <v>242</v>
+      </c>
+      <c r="L10" t="s">
+        <v>262</v>
       </c>
       <c r="M10" t="n">
-        <v>1680</v>
+        <v>48</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3600</v>
       </c>
     </row>
     <row r="11">
@@ -4362,16 +5248,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F11" t="n">
         <v>18.2333333333333</v>
@@ -4380,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I11" t="n">
         <v>240</v>
@@ -4389,30 +5275,33 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" t="n">
+        <v>242</v>
+      </c>
+      <c r="L11" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" t="n">
         <v>24</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F12" t="n">
         <v>15.9127272727273</v>
@@ -4421,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I12" t="n">
         <v>275</v>
@@ -4430,30 +5319,33 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" t="n">
+        <v>245</v>
+      </c>
+      <c r="L12" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" t="n">
         <v>16</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F13" t="n">
         <v>15.9127272727273</v>
@@ -4462,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I13" t="n">
         <v>275</v>
@@ -4471,30 +5363,33 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" t="n">
+        <v>253</v>
+      </c>
+      <c r="L13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" t="n">
         <v>16</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F14" t="n">
         <v>15.9127272727273</v>
@@ -4503,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I14" t="n">
         <v>275</v>
@@ -4512,30 +5407,33 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" t="n">
+        <v>242</v>
+      </c>
+      <c r="L14" t="s">
+        <v>266</v>
+      </c>
+      <c r="M14" t="n">
         <v>16</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -4544,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I15" t="n">
         <v>200</v>
@@ -4553,30 +5451,33 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" t="n">
+        <v>242</v>
+      </c>
+      <c r="L15" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15" t="n">
         <v>14</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F16" t="n">
         <v>15.9127272727273</v>
@@ -4585,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I16" t="n">
         <v>275</v>
@@ -4594,30 +5495,33 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" t="n">
+        <v>242</v>
+      </c>
+      <c r="L16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" t="n">
         <v>16</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F17" t="n">
         <v>428.75</v>
@@ -4626,7 +5530,7 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="I17" t="n">
         <v>1250</v>
@@ -4635,30 +5539,33 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" t="n">
+        <v>242</v>
+      </c>
+      <c r="L17" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" t="n">
         <v>432</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>6480</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F18" t="n">
         <v>120</v>
@@ -4667,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="I18" t="n">
         <v>10</v>
@@ -4676,30 +5583,33 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>212</v>
-      </c>
-      <c r="L18" t="n">
+        <v>253</v>
+      </c>
+      <c r="L18" t="s">
+        <v>274</v>
+      </c>
+      <c r="M18" t="n">
         <v>120</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4708,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -4717,30 +5627,33 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -4749,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -4758,30 +5671,33 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="L20" t="s">
+        <v>274</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4790,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -4799,12 +5715,15 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" t="n">
+        <v>278</v>
+      </c>
+      <c r="L21" t="s">
+        <v>274</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4827,39 +5746,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4870,22 +5792,25 @@
       <c r="G2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" t="n">
         <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4896,22 +5821,25 @@
       <c r="G3" t="n">
         <v>15</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4922,22 +5850,25 @@
       <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" t="n">
         <v>1260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4948,22 +5879,25 @@
       <c r="G5" t="n">
         <v>15</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4974,22 +5908,25 @@
       <c r="G6" t="n">
         <v>21</v>
       </c>
-      <c r="H6" t="n">
-        <v>2016</v>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1890</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5000,22 +5937,25 @@
       <c r="G7" t="n">
         <v>15</v>
       </c>
-      <c r="H7" t="n">
-        <v>960</v>
+      <c r="H7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -5026,22 +5966,25 @@
       <c r="G8" t="n">
         <v>21</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" t="n">
         <v>7056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5052,7 +5995,10 @@
       <c r="G9" t="n">
         <v>15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" t="n">
         <v>3360</v>
       </c>
     </row>
@@ -5075,174 +6021,195 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
-        <v>236</v>
+        <v>287</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="G2" t="n">
         <v>150</v>
       </c>
+      <c r="H2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>1500</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="G4" t="n">
         <v>150</v>
       </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
-        <v>2400</v>
+        <v>2250</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="G6" t="n">
         <v>150</v>
       </c>
+      <c r="H6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>800</v>
@@ -5253,51 +6220,60 @@
       <c r="G8" t="n">
         <v>200</v>
       </c>
+      <c r="H8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" t="n">
         <v>8400</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="G9" t="n">
         <v>150</v>
       </c>
+      <c r="H9" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -5305,13 +6281,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -5321,6 +6297,9 @@
       </c>
       <c r="G11" t="n">
         <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5342,109 +6321,195 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>322</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -5452,87 +6517,159 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>302</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>330</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>242</v>
+      </c>
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5554,109 +6691,199 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>367</v>
+      </c>
+      <c r="D2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>391</v>
+      </c>
+      <c r="D8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>391</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -5664,274 +6891,493 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>405</v>
+      </c>
+      <c r="D12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D13" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>416</v>
+      </c>
+      <c r="D16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>421</v>
+      </c>
+      <c r="D17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>430</v>
+      </c>
+      <c r="D19" t="s">
+        <v>431</v>
+      </c>
+      <c r="E19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>434</v>
+      </c>
+      <c r="D20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>421</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D24" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>455</v>
+      </c>
+      <c r="D26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>458</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>459</v>
+      </c>
+      <c r="D27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F27" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>372</v>
+      </c>
+      <c r="D28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>465</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>468</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>469</v>
+      </c>
+      <c r="D30" t="s">
+        <v>470</v>
+      </c>
+      <c r="E30" t="s">
+        <v>369</v>
+      </c>
+      <c r="F30" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>472</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>473</v>
+      </c>
+      <c r="D31" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>476</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>384</v>
+      </c>
+      <c r="D32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="C33" t="s">
-        <v>315</v>
+        <v>480</v>
+      </c>
+      <c r="D33" t="s">
+        <v>481</v>
+      </c>
+      <c r="E33" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>484</v>
       </c>
       <c r="C34" t="s">
-        <v>317</v>
+        <v>485</v>
+      </c>
+      <c r="D34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>489</v>
+      </c>
+      <c r="D35" t="s">
+        <v>490</v>
+      </c>
+      <c r="E35" t="s">
+        <v>491</v>
+      </c>
+      <c r="F35" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Farm_Outputs.xlsx
+++ b/Farm_Outputs.xlsx
@@ -2830,13 +2830,13 @@
         <v>157046.8</v>
       </c>
       <c r="E2" t="n">
-        <v>81579.9545508088</v>
+        <v>92585.2570508088</v>
       </c>
       <c r="F2" t="n">
-        <v>238626.754550809</v>
+        <v>249632.057050809</v>
       </c>
       <c r="G2" t="n">
-        <v>238626.754550809</v>
+        <v>249632.057050809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>16140.4</v>
       </c>
       <c r="E3" t="n">
-        <v>82018.9545508088</v>
+        <v>93084.9820508088</v>
       </c>
       <c r="F3" t="n">
-        <v>98159.3545508088</v>
+        <v>109225.382050809</v>
       </c>
       <c r="G3" t="n">
-        <v>336786.109101618</v>
+        <v>358857.439101618</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>105846.28125</v>
       </c>
       <c r="E4" t="n">
-        <v>145487.349550809</v>
+        <v>103027.008300809</v>
       </c>
       <c r="F4" t="n">
-        <v>251333.630800809</v>
+        <v>208873.289550809</v>
       </c>
       <c r="G4" t="n">
-        <v>588119.739902426</v>
+        <v>567730.728652426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2986,46 +2986,46 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>36194.28125</v>
+        <v>35157.78125</v>
       </c>
       <c r="E5" t="n">
-        <v>208949.744550809</v>
+        <v>104069.034550809</v>
       </c>
       <c r="F5" t="n">
-        <v>245144.025800809</v>
+        <v>139226.815800809</v>
       </c>
       <c r="G5" t="n">
-        <v>833263.765703235</v>
+        <v>706957.544453235</v>
       </c>
       <c r="H5" t="n">
-        <v>66992.1875</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.620367314639</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96143392321407</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23.2279079255236</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0512087103707678</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>19.5279278224285</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.65929274664764</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12.4382229749288</v>
-      </c>
-      <c r="P5" t="n">
-        <v>71.4584046376713</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>242.892720493681</v>
+        <v>0</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
@@ -3039,46 +3039,46 @@
         <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E6" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F6" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G6" t="n">
-        <v>980380.300254044</v>
+        <v>852701.579004044</v>
       </c>
       <c r="H6" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I6" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J6" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K6" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N6" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O6" t="n">
-        <v>7.31712410685234</v>
+        <v>14.5467124848004</v>
       </c>
       <c r="P6" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q6" t="n">
-        <v>142.888271426364</v>
+        <v>155.226706071808</v>
       </c>
     </row>
     <row r="7">
@@ -3092,46 +3092,46 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E7" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F7" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G7" t="n">
-        <v>1127496.83480485</v>
+        <v>998445.613554853</v>
       </c>
       <c r="H7" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I7" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J7" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K7" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N7" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O7" t="n">
-        <v>5.61009115082687</v>
+        <v>8.5165206853825</v>
       </c>
       <c r="P7" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.553455070592</v>
+        <v>90.8790528833008</v>
       </c>
     </row>
     <row r="8">
@@ -3145,46 +3145,46 @@
         <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E8" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F8" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G8" t="n">
-        <v>1274613.36935566</v>
+        <v>1144189.64810566</v>
       </c>
       <c r="H8" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I8" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J8" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K8" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N8" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O8" t="n">
-        <v>4.75657467281413</v>
+        <v>6.50645675224322</v>
       </c>
       <c r="P8" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.8860468927058</v>
+        <v>69.4298351537983</v>
       </c>
     </row>
     <row r="9">
@@ -3198,46 +3198,46 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E9" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F9" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G9" t="n">
-        <v>1421729.90390647</v>
+        <v>1289933.68265647</v>
       </c>
       <c r="H9" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I9" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J9" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K9" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M9" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N9" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O9" t="n">
-        <v>4.24446478600649</v>
+        <v>5.50142478567358</v>
       </c>
       <c r="P9" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.8856019859741</v>
+        <v>58.7052262890471</v>
       </c>
     </row>
     <row r="10">
@@ -3251,46 +3251,46 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E10" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F10" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G10" t="n">
-        <v>1568846.43845728</v>
+        <v>1435677.71720728</v>
       </c>
       <c r="H10" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I10" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J10" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K10" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M10" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N10" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O10" t="n">
-        <v>3.90305819480139</v>
+        <v>4.89840560573179</v>
       </c>
       <c r="P10" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.2186387148197</v>
+        <v>52.2704609701964</v>
       </c>
     </row>
     <row r="11">
@@ -3304,46 +3304,46 @@
         <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E11" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F11" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G11" t="n">
-        <v>1715962.97300809</v>
+        <v>1581421.75175809</v>
       </c>
       <c r="H11" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I11" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J11" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K11" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N11" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O11" t="n">
-        <v>3.65919634394061</v>
+        <v>4.49639281910393</v>
       </c>
       <c r="P11" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.4565220925665</v>
+        <v>47.9806174242959</v>
       </c>
     </row>
     <row r="12">
@@ -3357,46 +3357,46 @@
         <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>43047.5</v>
+        <v>41675</v>
       </c>
       <c r="E12" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F12" t="n">
-        <v>147116.534550809</v>
+        <v>145744.034550809</v>
       </c>
       <c r="G12" t="n">
-        <v>1863079.5075589</v>
+        <v>1727165.7863089</v>
       </c>
       <c r="H12" t="n">
-        <v>66992.1875</v>
+        <v>58618.1640625</v>
       </c>
       <c r="I12" t="n">
-        <v>100.620367314639</v>
+        <v>120.321920402265</v>
       </c>
       <c r="J12" t="n">
-        <v>3.96143392321407</v>
+        <v>4.73708603842923</v>
       </c>
       <c r="K12" t="n">
-        <v>23.2279079255236</v>
+        <v>42.5074125817755</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0512087103707678</v>
+        <v>0.0937126919260338</v>
       </c>
       <c r="M12" t="n">
-        <v>19.5279278224285</v>
+        <v>10.6709131863301</v>
       </c>
       <c r="N12" t="n">
-        <v>2.19602523877592</v>
+        <v>2.48632888596465</v>
       </c>
       <c r="O12" t="n">
-        <v>3.47629995579503</v>
+        <v>4.20924082865547</v>
       </c>
       <c r="P12" t="n">
-        <v>42.8838223590475</v>
+        <v>26.5313996947935</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.8849346258767</v>
+        <v>44.9164434629384</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5468,7 @@
         <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L16" t="s">
         <v>266</v>
@@ -5512,43 +5512,43 @@
         <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>240</v>
       </c>
       <c r="F17" t="n">
-        <v>428.75</v>
+        <v>15.9127272727273</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I17" t="n">
-        <v>1250</v>
+        <v>275</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M17" t="n">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>6480</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -5556,43 +5556,43 @@
         <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>240</v>
       </c>
       <c r="F18" t="n">
-        <v>120</v>
+        <v>15.9127272727273</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="L18" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -5600,10 +5600,10 @@
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
         <v>200</v>
@@ -5612,31 +5612,31 @@
         <v>240</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>375.15625</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>242</v>
       </c>
       <c r="L19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="20">
@@ -5644,7 +5644,7 @@
         <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
         <v>199</v>
@@ -5656,7 +5656,7 @@
         <v>240</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -5665,19 +5665,19 @@
         <v>273</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L20" t="s">
         <v>274</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>199</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="L21" t="s">
         <v>274</v>
@@ -5724,6 +5724,94 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>274</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" t="s">
+        <v>274</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5970,7 +6058,7 @@
         <v>284</v>
       </c>
       <c r="I8" t="n">
-        <v>7056</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="9">
@@ -5999,7 +6087,7 @@
         <v>284</v>
       </c>
       <c r="I9" t="n">
-        <v>3360</v>
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
@@ -6238,7 +6326,7 @@
         <v>134</v>
       </c>
       <c r="E9" t="n">
-        <v>8400</v>
+        <v>7950</v>
       </c>
       <c r="F9" t="s">
         <v>232</v>
@@ -6264,7 +6352,7 @@
         <v>134</v>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>79.5</v>
       </c>
       <c r="F10" t="s">
         <v>289</v>

--- a/Farm_Outputs.xlsx
+++ b/Farm_Outputs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -142,16 +142,16 @@
     <t xml:space="preserve">Gross.Profit</t>
   </si>
   <si>
-    <t xml:space="preserve">-157046.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -16140.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-105846.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  66723.22</t>
+    <t xml:space="preserve">-190647.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -18426.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-112318.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  53978.82</t>
   </si>
   <si>
     <t xml:space="preserve">  59870.01</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">No Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">64.83</t>
+    <t xml:space="preserve">52.45</t>
   </si>
   <si>
     <t xml:space="preserve">58.17</t>
@@ -172,16 +172,16 @@
     <t xml:space="preserve">Net.Profit</t>
   </si>
   <si>
-    <t xml:space="preserve">-238626.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -98159.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251333.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-142226.52</t>
+    <t xml:space="preserve">-283232.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-111511.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215345.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -50090.21</t>
   </si>
   <si>
     <t xml:space="preserve"> -44199.03</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Net.Profit.Margin</t>
   </si>
   <si>
-    <t xml:space="preserve">-138.19</t>
+    <t xml:space="preserve">-48.67</t>
   </si>
   <si>
     <t xml:space="preserve">-42.95</t>
@@ -199,124 +199,121 @@
     <t xml:space="preserve">Depreciation</t>
   </si>
   <si>
-    <t xml:space="preserve">  3160.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5099.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68567.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132030.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27149.32</t>
+    <t xml:space="preserve">14165.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16165.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26107.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27149.32</t>
   </si>
   <si>
     <t xml:space="preserve">Cash.Flow.YE</t>
   </si>
   <si>
-    <t xml:space="preserve"> -241787.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -345045.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -664946.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -939203.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1010551.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1081900.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1153248.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1224596.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1295945.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1367293.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1438641.9</t>
+    <t xml:space="preserve"> -297398.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -425075.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -666528.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -743767.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -815116.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -886464.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -957812.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1029161.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1100509.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1171857.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1243206.1</t>
   </si>
   <si>
     <t xml:space="preserve">234472.7</t>
   </si>
   <si>
-    <t xml:space="preserve">-157046.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -16140.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-105846.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 198278.4</t>
+    <t xml:space="preserve">-190647.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -18426.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-112318.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 185534.0</t>
   </si>
   <si>
     <t xml:space="preserve"> 191425.2</t>
   </si>
   <si>
-    <t xml:space="preserve">84.56</t>
+    <t xml:space="preserve">79.13</t>
   </si>
   <si>
     <t xml:space="preserve">81.64</t>
   </si>
   <si>
-    <t xml:space="preserve"> -10671.37</t>
+    <t xml:space="preserve">  81464.94</t>
   </si>
   <si>
     <t xml:space="preserve">  87356.12</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.55</t>
+    <t xml:space="preserve">34.74</t>
   </si>
   <si>
     <t xml:space="preserve">37.26</t>
   </si>
   <si>
-    <t xml:space="preserve">-241787.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345045.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-664946.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-807648.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-747441.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-687234.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-627027.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-566821.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-506614.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-446407.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-386200.6</t>
+    <t xml:space="preserve">-297398.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-425075.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-666528.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-612212.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-552005.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-491798.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-431592.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-371385.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-311178.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250971.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-190764.9</t>
   </si>
   <si>
     <t xml:space="preserve">COG.Cost.of.Goods.Sold</t>
@@ -2296,63 +2293,63 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>74</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2497,28 +2494,28 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2526,37 +2523,37 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2573,28 +2570,28 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2611,28 +2608,28 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2649,28 +2646,28 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
         <v>86</v>
       </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -2690,63 +2687,63 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>91</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>92</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>97</v>
-      </c>
-      <c r="L10" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2774,51 +2771,51 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>111</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2827,16 +2824,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>157046.8</v>
+        <v>190647.32</v>
       </c>
       <c r="E2" t="n">
         <v>92585.2570508088</v>
       </c>
       <c r="F2" t="n">
-        <v>249632.057050809</v>
+        <v>283232.577050809</v>
       </c>
       <c r="G2" t="n">
-        <v>249632.057050809</v>
+        <v>283232.577050809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2871,7 +2868,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -2880,16 +2877,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>16140.4</v>
+        <v>18426.8</v>
       </c>
       <c r="E3" t="n">
         <v>93084.9820508088</v>
       </c>
       <c r="F3" t="n">
-        <v>109225.382050809</v>
+        <v>111511.782050809</v>
       </c>
       <c r="G3" t="n">
-        <v>358857.439101618</v>
+        <v>394744.359101618</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2924,7 +2921,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -2933,16 +2930,16 @@
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>105846.28125</v>
+        <v>112318.68125</v>
       </c>
       <c r="E4" t="n">
         <v>103027.008300809</v>
       </c>
       <c r="F4" t="n">
-        <v>208873.289550809</v>
+        <v>215345.689550809</v>
       </c>
       <c r="G4" t="n">
-        <v>567730.728652426</v>
+        <v>610090.048652426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -2986,51 +2983,51 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>35157.78125</v>
+        <v>48938.68125</v>
       </c>
       <c r="E5" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F5" t="n">
-        <v>139226.815800809</v>
+        <v>153007.715800809</v>
       </c>
       <c r="G5" t="n">
-        <v>706957.544453235</v>
+        <v>763097.764453235</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>66992.1875</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q5" t="e">
-        <v>#NUM!</v>
+        <v>19.5279278224285</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.28396357113744</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11.3908470962116</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44.6010757662279</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>222.439639931139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -3039,51 +3036,51 @@
         <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E6" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F6" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G6" t="n">
-        <v>852701.579004044</v>
+        <v>910214.299004044</v>
       </c>
       <c r="H6" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I6" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K6" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M6" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O6" t="n">
-        <v>14.5467124848004</v>
+        <v>6.79343616749374</v>
       </c>
       <c r="P6" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.226706071808</v>
+        <v>132.661731145093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -3092,51 +3089,51 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E7" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F7" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G7" t="n">
-        <v>998445.613554853</v>
+        <v>1057330.83355485</v>
       </c>
       <c r="H7" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I7" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J7" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K7" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M7" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O7" t="n">
-        <v>8.5165206853825</v>
+        <v>5.26096585792113</v>
       </c>
       <c r="P7" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.8790528833008</v>
+        <v>102.735761549745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -3145,51 +3142,51 @@
         <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E8" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F8" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G8" t="n">
-        <v>1144189.64810566</v>
+        <v>1204447.36810566</v>
       </c>
       <c r="H8" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I8" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J8" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M8" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O8" t="n">
-        <v>6.50645675224322</v>
+        <v>4.49473070313483</v>
       </c>
       <c r="P8" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.4298351537983</v>
+        <v>87.7727767520703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -3198,51 +3195,51 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E9" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F9" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G9" t="n">
-        <v>1289933.68265647</v>
+        <v>1351563.90265647</v>
       </c>
       <c r="H9" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I9" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J9" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K9" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M9" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O9" t="n">
-        <v>5.50142478567358</v>
+        <v>4.03498961026305</v>
       </c>
       <c r="P9" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.7052262890471</v>
+        <v>78.7949858734658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -3251,46 +3248,46 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E10" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F10" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G10" t="n">
-        <v>1435677.71720728</v>
+        <v>1498680.43720728</v>
       </c>
       <c r="H10" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I10" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J10" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K10" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M10" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O10" t="n">
-        <v>4.89840560573179</v>
+        <v>3.72849554834853</v>
       </c>
       <c r="P10" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.2704609701964</v>
+        <v>72.809791954396</v>
       </c>
     </row>
     <row r="11">
@@ -3304,51 +3301,51 @@
         <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E11" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F11" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G11" t="n">
-        <v>1581421.75175809</v>
+        <v>1645796.97175809</v>
       </c>
       <c r="H11" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I11" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J11" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K11" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M11" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O11" t="n">
-        <v>4.49639281910393</v>
+        <v>3.50957121840958</v>
       </c>
       <c r="P11" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.9806174242959</v>
+        <v>68.5346534407748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -3357,46 +3354,46 @@
         <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>41675</v>
+        <v>43047.5</v>
       </c>
       <c r="E12" t="n">
         <v>104069.034550809</v>
       </c>
       <c r="F12" t="n">
-        <v>145744.034550809</v>
+        <v>147116.534550809</v>
       </c>
       <c r="G12" t="n">
-        <v>1727165.7863089</v>
+        <v>1792913.5063089</v>
       </c>
       <c r="H12" t="n">
-        <v>58618.1640625</v>
+        <v>66992.1875</v>
       </c>
       <c r="I12" t="n">
-        <v>120.321920402265</v>
+        <v>100.620367314639</v>
       </c>
       <c r="J12" t="n">
-        <v>4.73708603842923</v>
+        <v>3.96143392321407</v>
       </c>
       <c r="K12" t="n">
-        <v>42.5074125817755</v>
+        <v>23.2279079255236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0937126919260338</v>
+        <v>0.0512087103707678</v>
       </c>
       <c r="M12" t="n">
-        <v>10.6709131863301</v>
+        <v>19.5279278224285</v>
       </c>
       <c r="N12" t="n">
-        <v>2.48632888596465</v>
+        <v>2.19602523877592</v>
       </c>
       <c r="O12" t="n">
-        <v>4.20924082865547</v>
+        <v>3.34537797095538</v>
       </c>
       <c r="P12" t="n">
-        <v>26.5313996947935</v>
+        <v>42.8838223590475</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.9164434629384</v>
+        <v>65.3282995555589</v>
       </c>
     </row>
   </sheetData>
@@ -3418,34 +3415,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
       </c>
       <c r="L1" t="s">
         <v>58</v>
@@ -3453,16 +3450,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
@@ -3472,7 +3469,7 @@
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="n">
@@ -3487,16 +3484,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
@@ -3506,7 +3503,7 @@
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="n">
@@ -3521,16 +3518,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
         <v>1.5</v>
@@ -3540,10 +3537,10 @@
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
         <v>138</v>
-      </c>
-      <c r="I4" t="s">
-        <v>139</v>
       </c>
       <c r="J4" t="n">
         <v>547</v>
@@ -3557,16 +3554,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
       </c>
       <c r="E5" t="n">
         <v>1.5</v>
@@ -3576,10 +3573,10 @@
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
         <v>138</v>
-      </c>
-      <c r="I5" t="s">
-        <v>139</v>
       </c>
       <c r="J5" t="n">
         <v>547</v>
@@ -3593,16 +3590,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -3612,7 +3609,7 @@
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
@@ -3627,16 +3624,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -3646,7 +3643,7 @@
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
@@ -3661,16 +3658,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -3680,7 +3677,7 @@
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
@@ -3695,16 +3692,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -3714,7 +3711,7 @@
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
@@ -3729,16 +3726,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
         <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -3748,7 +3745,7 @@
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="n">
@@ -3763,16 +3760,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="n">
         <v>2000</v>
@@ -3782,7 +3779,7 @@
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="n">
@@ -3797,16 +3794,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="n">
         <v>25000</v>
@@ -3815,10 +3812,10 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
         <v>151</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="n">
@@ -3833,16 +3830,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
         <v>153</v>
       </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="n">
         <v>0.17</v>
@@ -3852,10 +3849,10 @@
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>155</v>
-      </c>
-      <c r="I13" t="s">
-        <v>156</v>
       </c>
       <c r="J13" t="n">
         <v>24615</v>
@@ -3869,16 +3866,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
       </c>
       <c r="E14" t="n">
         <v>0.17</v>
@@ -3888,10 +3885,10 @@
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
         <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>156</v>
       </c>
       <c r="J14" t="n">
         <v>24615</v>
@@ -3905,16 +3902,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
-        <v>159</v>
-      </c>
       <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
         <v>141</v>
-      </c>
-      <c r="D15" t="s">
-        <v>142</v>
       </c>
       <c r="E15" t="n">
         <v>0.17</v>
@@ -3924,10 +3921,10 @@
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" t="n">
         <v>176</v>
@@ -3941,16 +3938,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
         <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
       </c>
       <c r="E16" t="n">
         <v>0.17</v>
@@ -3960,10 +3957,10 @@
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" t="n">
         <v>250</v>
@@ -3977,16 +3974,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
         <v>144</v>
-      </c>
-      <c r="D17" t="s">
-        <v>145</v>
       </c>
       <c r="E17" t="n">
         <v>0.17</v>
@@ -3996,10 +3993,10 @@
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" t="n">
         <v>1540</v>
@@ -4013,16 +4010,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
         <v>163</v>
       </c>
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
       <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
         <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -4032,10 +4029,10 @@
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
         <v>165</v>
-      </c>
-      <c r="I18" t="s">
-        <v>166</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
@@ -4049,16 +4046,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="B19" t="s">
-        <v>168</v>
-      </c>
       <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
         <v>144</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
       </c>
       <c r="E19" t="n">
         <v>60</v>
@@ -4068,10 +4065,10 @@
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
         <v>169</v>
-      </c>
-      <c r="I19" t="s">
-        <v>170</v>
       </c>
       <c r="J19" t="n">
         <v>35</v>
@@ -4085,16 +4082,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
         <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
       </c>
       <c r="E20" t="n">
         <v>60</v>
@@ -4104,10 +4101,10 @@
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
         <v>169</v>
-      </c>
-      <c r="I20" t="s">
-        <v>170</v>
       </c>
       <c r="J20" t="n">
         <v>13.675</v>
@@ -4121,16 +4118,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -4140,10 +4137,10 @@
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" t="s">
         <v>169</v>
-      </c>
-      <c r="I21" t="s">
-        <v>170</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -4157,16 +4154,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -4176,10 +4173,10 @@
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" t="s">
         <v>169</v>
-      </c>
-      <c r="I22" t="s">
-        <v>170</v>
       </c>
       <c r="J22" t="n">
         <v>13.675</v>
@@ -4193,16 +4190,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
         <v>174</v>
       </c>
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
       <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
@@ -4227,16 +4224,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
         <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
@@ -4246,7 +4243,7 @@
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="n">
@@ -4261,16 +4258,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
         <v>178</v>
       </c>
-      <c r="B25" t="s">
-        <v>179</v>
-      </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" t="n">
         <v>3000</v>
@@ -4280,7 +4277,7 @@
       </c>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="n">
@@ -4295,16 +4292,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
         <v>181</v>
       </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" t="n">
         <v>10000</v>
@@ -4313,10 +4310,10 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="n">
@@ -4331,16 +4328,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
         <v>184</v>
       </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="n">
         <v>14000</v>
@@ -4349,10 +4346,10 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="n">
@@ -4367,16 +4364,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
         <v>187</v>
       </c>
-      <c r="B28" t="s">
-        <v>188</v>
-      </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" t="n">
         <v>35000</v>
@@ -4385,10 +4382,10 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="n">
@@ -4403,16 +4400,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
         <v>190</v>
       </c>
-      <c r="B29" t="s">
-        <v>191</v>
-      </c>
       <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
         <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
       </c>
       <c r="E29" t="n">
         <v>75</v>
@@ -4422,10 +4419,10 @@
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" t="s">
         <v>192</v>
-      </c>
-      <c r="I29" t="s">
-        <v>193</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -4439,16 +4436,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
-        <v>195</v>
-      </c>
       <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
         <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>142</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -4458,10 +4455,10 @@
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" t="s">
         <v>196</v>
-      </c>
-      <c r="I30" t="s">
-        <v>197</v>
       </c>
       <c r="J30" t="n">
         <v>25</v>
@@ -4475,16 +4472,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
         <v>198</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>199</v>
-      </c>
-      <c r="D31" t="s">
-        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>180</v>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="n">
@@ -4509,16 +4506,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
       <c r="C32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
         <v>199</v>
-      </c>
-      <c r="D32" t="s">
-        <v>200</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -4528,7 +4525,7 @@
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="n">
@@ -4543,16 +4540,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
       <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
         <v>199</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
       </c>
       <c r="E33" t="n">
         <v>800</v>
@@ -4562,7 +4559,7 @@
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="n">
@@ -4577,16 +4574,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
         <v>208</v>
       </c>
-      <c r="B34" t="s">
-        <v>209</v>
-      </c>
       <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
         <v>199</v>
-      </c>
-      <c r="D34" t="s">
-        <v>200</v>
       </c>
       <c r="E34" t="n">
         <v>1000</v>
@@ -4596,7 +4593,7 @@
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="n">
@@ -4611,16 +4608,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
         <v>211</v>
       </c>
-      <c r="B35" t="s">
-        <v>212</v>
-      </c>
       <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
         <v>199</v>
-      </c>
-      <c r="D35" t="s">
-        <v>200</v>
       </c>
       <c r="E35" t="n">
         <v>4.5</v>
@@ -4630,10 +4627,10 @@
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" t="s">
         <v>213</v>
-      </c>
-      <c r="I35" t="s">
-        <v>214</v>
       </c>
       <c r="J35" t="n">
         <v>360</v>
@@ -4647,16 +4644,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
         <v>215</v>
       </c>
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
       <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
         <v>199</v>
-      </c>
-      <c r="D36" t="s">
-        <v>200</v>
       </c>
       <c r="E36" t="n">
         <v>2.65</v>
@@ -4666,10 +4663,10 @@
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s">
         <v>217</v>
-      </c>
-      <c r="I36" t="s">
-        <v>218</v>
       </c>
       <c r="J36" t="n">
         <v>2264</v>
@@ -4683,16 +4680,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
         <v>219</v>
       </c>
-      <c r="B37" t="s">
-        <v>220</v>
-      </c>
       <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
         <v>199</v>
-      </c>
-      <c r="D37" t="s">
-        <v>200</v>
       </c>
       <c r="E37" t="n">
         <v>70</v>
@@ -4702,10 +4699,10 @@
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" t="s">
         <v>221</v>
-      </c>
-      <c r="I37" t="s">
-        <v>222</v>
       </c>
       <c r="J37" t="n">
         <v>22.64</v>
@@ -4719,16 +4716,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
         <v>223</v>
       </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
       <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
       </c>
       <c r="E38" t="n">
         <v>25000</v>
@@ -4737,10 +4734,10 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" t="s">
         <v>224</v>
-      </c>
-      <c r="H38" t="s">
-        <v>225</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="n">
@@ -4755,16 +4752,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
         <v>226</v>
       </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
       <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
         <v>199</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
       </c>
       <c r="E39" t="n">
         <v>150000</v>
@@ -4773,10 +4770,10 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" t="s">
         <v>227</v>
-      </c>
-      <c r="H39" t="s">
-        <v>228</v>
       </c>
       <c r="I39"/>
       <c r="J39" t="n">
@@ -4808,60 +4805,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>233</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>234</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
         <v>236</v>
       </c>
-      <c r="L1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>237</v>
-      </c>
-      <c r="N1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
         <v>239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>240</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -4870,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" t="n">
         <v>50</v>
@@ -4879,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
         <v>242</v>
-      </c>
-      <c r="L2" t="s">
-        <v>243</v>
       </c>
       <c r="M2" t="n">
         <v>8</v>
@@ -4893,19 +4890,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>141</v>
       </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -4914,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -4923,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" t="s">
         <v>245</v>
-      </c>
-      <c r="L3" t="s">
-        <v>246</v>
       </c>
       <c r="M3" t="n">
         <v>8</v>
@@ -4937,19 +4934,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -4958,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -4967,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M4" t="n">
         <v>8</v>
@@ -4981,19 +4978,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
         <v>141</v>
       </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -5002,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5" t="n">
         <v>200000</v>
@@ -5011,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M5" t="n">
         <v>8</v>
@@ -5025,19 +5022,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
@@ -5046,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
@@ -5055,10 +5052,10 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" t="s">
         <v>253</v>
-      </c>
-      <c r="L6" t="s">
-        <v>254</v>
       </c>
       <c r="M6" t="n">
         <v>32</v>
@@ -5069,19 +5066,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
         <v>144</v>
       </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" t="n">
         <v>18.6666666666667</v>
@@ -5090,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I7" t="n">
         <v>150</v>
@@ -5099,10 +5096,10 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M7" t="n">
         <v>24</v>
@@ -5113,19 +5110,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" t="n">
         <v>18.6666666666667</v>
@@ -5134,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" t="n">
         <v>150</v>
@@ -5143,10 +5140,10 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" t="n">
         <v>24</v>
@@ -5157,19 +5154,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
         <v>1.6</v>
@@ -5178,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I9" t="n">
         <v>200</v>
@@ -5187,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" t="n">
         <v>1.6</v>
@@ -5201,19 +5198,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" t="n">
         <v>40.8333333333333</v>
@@ -5222,7 +5219,7 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I10" t="n">
         <v>15000</v>
@@ -5231,10 +5228,10 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M10" t="n">
         <v>48</v>
@@ -5248,16 +5245,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" t="n">
         <v>18.2333333333333</v>
@@ -5266,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" t="n">
         <v>240</v>
@@ -5275,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M11" t="n">
         <v>24</v>
@@ -5289,19 +5286,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" t="n">
         <v>15.9127272727273</v>
@@ -5310,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I12" t="n">
         <v>275</v>
@@ -5319,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M12" t="n">
         <v>16</v>
@@ -5333,19 +5330,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" t="n">
         <v>15.9127272727273</v>
@@ -5354,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I13" t="n">
         <v>275</v>
@@ -5363,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M13" t="n">
         <v>16</v>
@@ -5377,19 +5374,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
         <v>15.9127272727273</v>
@@ -5398,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I14" t="n">
         <v>275</v>
@@ -5407,10 +5404,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M14" t="n">
         <v>16</v>
@@ -5421,19 +5418,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -5442,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I15" t="n">
         <v>200</v>
@@ -5451,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" t="n">
         <v>14</v>
@@ -5465,19 +5462,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
         <v>133</v>
       </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
         <v>15.9127272727273</v>
@@ -5486,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I16" t="n">
         <v>275</v>
@@ -5495,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
@@ -5509,175 +5506,175 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F17" t="n">
-        <v>15.9127272727273</v>
+        <v>428.75</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I17" t="n">
-        <v>275</v>
+        <v>1250</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L17" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="N17" t="n">
-        <v>240</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" t="n">
-        <v>15.9127272727273</v>
+        <v>120</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="I18" t="n">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L18" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F19" t="n">
-        <v>375.15625</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="I19" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M19" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
         <v>199</v>
       </c>
-      <c r="D20" t="s">
-        <v>200</v>
-      </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5685,19 +5682,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
         <v>199</v>
       </c>
-      <c r="D21" t="s">
-        <v>200</v>
-      </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5706,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -5715,103 +5712,15 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>273</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>245</v>
-      </c>
-      <c r="L22" t="s">
-        <v>274</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>273</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>278</v>
-      </c>
-      <c r="L23" t="s">
-        <v>274</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5834,42 +5743,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
         <v>280</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
         <v>282</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5881,7 +5790,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I2" t="n">
         <v>504</v>
@@ -5889,16 +5798,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5910,7 +5819,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" t="n">
         <v>240</v>
@@ -5918,16 +5827,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5939,7 +5848,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" t="n">
         <v>1260</v>
@@ -5947,16 +5856,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5968,7 +5877,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I5" t="n">
         <v>600</v>
@@ -5976,16 +5885,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5997,7 +5906,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I6" t="n">
         <v>1890</v>
@@ -6005,16 +5914,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6026,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I7" t="n">
         <v>900</v>
@@ -6034,16 +5943,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -6055,24 +5964,24 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>6678</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -6084,10 +5993,10 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>3180</v>
+        <v>3360</v>
       </c>
     </row>
   </sheetData>
@@ -6109,195 +6018,195 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
-        <v>287</v>
-      </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" t="n">
         <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>1500</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" t="n">
         <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
         <v>2250</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" t="n">
         <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
         <v>22.5</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
         <v>800</v>
@@ -6309,59 +6218,59 @@
         <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
       <c r="E9" t="n">
-        <v>7950</v>
+        <v>8400</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" t="n">
         <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
       <c r="E10" t="n">
-        <v>79.5</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -6369,13 +6278,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
         <v>133</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6387,7 +6296,7 @@
         <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6409,195 +6318,195 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>294</v>
-      </c>
-      <c r="F1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>299</v>
-      </c>
-      <c r="F2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
         <v>301</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>302</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>303</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>304</v>
-      </c>
-      <c r="F3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" t="s">
         <v>306</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>307</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>308</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
         <v>311</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>312</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>313</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>314</v>
-      </c>
-      <c r="F5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
         <v>316</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>317</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>318</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
         <v>321</v>
-      </c>
-      <c r="C7" t="s">
-        <v>322</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="s">
         <v>324</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>325</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>326</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
         <v>329</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>330</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" t="s">
         <v>331</v>
-      </c>
-      <c r="E9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
         <v>333</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>334</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
         <v>335</v>
-      </c>
-      <c r="E10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -6605,159 +6514,159 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
         <v>337</v>
       </c>
-      <c r="C11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
         <v>338</v>
-      </c>
-      <c r="E11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" t="s">
         <v>340</v>
       </c>
-      <c r="C12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
         <v>341</v>
-      </c>
-      <c r="E12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" t="s">
         <v>343</v>
       </c>
-      <c r="C13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>344</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>345</v>
-      </c>
-      <c r="F13" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
         <v>347</v>
       </c>
-      <c r="C14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>348</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>349</v>
-      </c>
-      <c r="F14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
         <v>351</v>
       </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>352</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>353</v>
-      </c>
-      <c r="F15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
         <v>355</v>
       </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>356</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>357</v>
-      </c>
-      <c r="F16" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
         <v>359</v>
       </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
         <v>360</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
         <v>362</v>
       </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>363</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>364</v>
-      </c>
-      <c r="F18" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6779,199 +6688,199 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>294</v>
-      </c>
-      <c r="F1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" t="s">
         <v>366</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>367</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>368</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>369</v>
-      </c>
-      <c r="F2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
         <v>371</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" t="s">
         <v>373</v>
-      </c>
-      <c r="E3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>376</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" t="s">
         <v>377</v>
-      </c>
-      <c r="E4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
         <v>379</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>380</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" t="s">
         <v>381</v>
-      </c>
-      <c r="E5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
         <v>383</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>384</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
         <v>385</v>
-      </c>
-      <c r="E6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" t="s">
         <v>387</v>
       </c>
-      <c r="C7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" t="s">
         <v>388</v>
-      </c>
-      <c r="E7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
         <v>390</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>391</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>392</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>393</v>
-      </c>
-      <c r="F8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" t="s">
         <v>395</v>
       </c>
-      <c r="C9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" t="s">
         <v>396</v>
-      </c>
-      <c r="E9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" t="s">
         <v>398</v>
       </c>
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" t="s">
         <v>399</v>
-      </c>
-      <c r="E10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -6979,493 +6888,493 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" t="s">
         <v>401</v>
       </c>
-      <c r="C11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" t="s">
         <v>402</v>
-      </c>
-      <c r="E11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" t="s">
         <v>404</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>405</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>406</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>407</v>
-      </c>
-      <c r="F12" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
         <v>409</v>
       </c>
-      <c r="C13" t="s">
-        <v>410</v>
-      </c>
       <c r="D13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
         <v>406</v>
-      </c>
-      <c r="E13" t="s">
-        <v>407</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" t="s">
         <v>411</v>
       </c>
-      <c r="C14" t="s">
-        <v>412</v>
-      </c>
       <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" t="s">
         <v>406</v>
-      </c>
-      <c r="E14" t="s">
-        <v>407</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" t="s">
         <v>413</v>
       </c>
-      <c r="C15" t="s">
-        <v>414</v>
-      </c>
       <c r="D15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" t="s">
         <v>406</v>
-      </c>
-      <c r="E15" t="s">
-        <v>407</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" t="s">
         <v>415</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>416</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>417</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>418</v>
-      </c>
-      <c r="F16" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" t="s">
         <v>420</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>421</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>422</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>423</v>
-      </c>
-      <c r="F17" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
         <v>425</v>
       </c>
-      <c r="C18" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>426</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>427</v>
-      </c>
-      <c r="F18" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" t="s">
         <v>429</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>430</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" t="s">
         <v>431</v>
-      </c>
-      <c r="E19" t="s">
-        <v>369</v>
-      </c>
-      <c r="F19" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" t="s">
         <v>433</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>434</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" t="s">
         <v>435</v>
-      </c>
-      <c r="E20" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" t="s">
         <v>437</v>
       </c>
-      <c r="C21" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" t="s">
         <v>438</v>
-      </c>
-      <c r="E21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F21" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" t="s">
         <v>440</v>
       </c>
-      <c r="C22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>441</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>442</v>
-      </c>
-      <c r="F22" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" t="s">
         <v>444</v>
       </c>
-      <c r="C23" t="s">
-        <v>384</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>445</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>446</v>
-      </c>
-      <c r="F23" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D24" t="s">
         <v>448</v>
       </c>
-      <c r="C24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>368</v>
+      </c>
+      <c r="F24" t="s">
         <v>449</v>
-      </c>
-      <c r="E24" t="s">
-        <v>369</v>
-      </c>
-      <c r="F24" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
         <v>451</v>
       </c>
-      <c r="C25" t="s">
-        <v>380</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" t="s">
         <v>452</v>
-      </c>
-      <c r="E25" t="s">
-        <v>369</v>
-      </c>
-      <c r="F25" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C26" t="s">
         <v>454</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" t="s">
         <v>456</v>
-      </c>
-      <c r="E26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" t="s">
         <v>458</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>459</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" t="s">
         <v>460</v>
-      </c>
-      <c r="E27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" t="s">
         <v>462</v>
       </c>
-      <c r="C28" t="s">
-        <v>372</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" t="s">
         <v>463</v>
-      </c>
-      <c r="E28" t="s">
-        <v>369</v>
-      </c>
-      <c r="F28" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
         <v>465</v>
       </c>
-      <c r="C29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" t="s">
         <v>466</v>
-      </c>
-      <c r="E29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F29" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C30" t="s">
         <v>468</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>469</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" t="s">
         <v>470</v>
-      </c>
-      <c r="E30" t="s">
-        <v>369</v>
-      </c>
-      <c r="F30" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" t="s">
         <v>472</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>473</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" t="s">
         <v>474</v>
-      </c>
-      <c r="E31" t="s">
-        <v>369</v>
-      </c>
-      <c r="F31" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
         <v>476</v>
       </c>
-      <c r="C32" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" t="s">
         <v>477</v>
-      </c>
-      <c r="E32" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
+        <v>478</v>
+      </c>
+      <c r="C33" t="s">
         <v>479</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>480</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>481</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>482</v>
-      </c>
-      <c r="F33" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" t="s">
         <v>484</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>485</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" t="s">
         <v>486</v>
-      </c>
-      <c r="E34" t="s">
-        <v>482</v>
-      </c>
-      <c r="F34" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" t="s">
         <v>488</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>489</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>490</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>491</v>
-      </c>
-      <c r="F35" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
